--- a/data/trans_dic/P70C2_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70C2_R_2023-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.03830731268525346</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.08604904302477845</v>
+        <v>0.08604904302477843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05474987094421522</v>
+        <v>0.05474987094421523</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01494289796700255</v>
+        <v>0.0147481004918633</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04398058076743572</v>
+        <v>0.04192783170812173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03129878531249651</v>
+        <v>0.03161658278533004</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08066745058620331</v>
+        <v>0.08098737489627499</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1523047331456868</v>
+        <v>0.1557741985197493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08918299361925489</v>
+        <v>0.08605111927415225</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.09463055004340717</v>
+        <v>0.09463055004340715</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1005324116371321</v>
+        <v>0.100532411637132</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.09713925768909125</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07831145706478201</v>
+        <v>0.07677445315105906</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08363914198506732</v>
+        <v>0.08459830619855024</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0843247178690297</v>
+        <v>0.08414008781573709</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1134894286069783</v>
+        <v>0.1120788747512677</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1220691980994659</v>
+        <v>0.1211555461628555</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1112369596572755</v>
+        <v>0.1094439926267227</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04509567864601711</v>
+        <v>0.04495143840116432</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06750674979372309</v>
+        <v>0.06793746059326956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06040171235707282</v>
+        <v>0.06256698982208132</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1103333569826476</v>
+        <v>0.1040132500353949</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1164888721335423</v>
+        <v>0.1159128288525306</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09984961395462284</v>
+        <v>0.1014468215875434</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.0833964988839852</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09620742012250882</v>
+        <v>0.09620742012250881</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.08903220699256818</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06881162676257849</v>
+        <v>0.06899641457789667</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08286949314557306</v>
+        <v>0.08290482007765138</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07951961001535338</v>
+        <v>0.0804888395024846</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09966976284731641</v>
+        <v>0.09989009801198528</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1118265228844023</v>
+        <v>0.1135867125802106</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1001574232091715</v>
+        <v>0.100495928563264</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2408</v>
+        <v>2376</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3723</v>
+        <v>3549</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7693</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12998</v>
+        <v>13050</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12893</v>
+        <v>13186</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21920</v>
+        <v>21150</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>98647</v>
+        <v>96711</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>77896</v>
+        <v>78789</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>184757</v>
+        <v>184352</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>142960</v>
+        <v>141183</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>113687</v>
+        <v>112836</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>243722</v>
+        <v>239793</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21756</v>
+        <v>21686</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>32329</v>
+        <v>32536</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>58067</v>
+        <v>60148</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53229</v>
+        <v>50180</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>55787</v>
+        <v>55511</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>95990</v>
+        <v>97525</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>130966</v>
+        <v>131318</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>123881</v>
+        <v>123934</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>270219</v>
+        <v>273513</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>189697</v>
+        <v>190116</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>167169</v>
+        <v>169800</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>340349</v>
+        <v>341500</v>
       </c>
     </row>
     <row r="20">
